--- a/data_config/BattleCommonParam.xlsx
+++ b/data_config/BattleCommonParam.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14720"/>
+    <workbookView windowWidth="15810" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>#</t>
   </si>
@@ -33,6 +46,12 @@
     <t>entityItemBarCellUnlockStarLevel</t>
   </si>
   <si>
+    <t>initPlayerWarhouseCellUnlockCount</t>
+  </si>
+  <si>
+    <t>maxPlayerWarhouseCellCount</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -52,6 +71,12 @@
   </si>
   <si>
     <t>实体装备栏解锁星级</t>
+  </si>
+  <si>
+    <t>玩家仓库初始解锁道具栏数目</t>
+  </si>
+  <si>
+    <t>实体的仓库道具栏最大格子数量</t>
   </si>
   <si>
     <t>2,4</t>
@@ -60,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1028,22 +1053,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="30.9230769230769" customWidth="1"/>
+    <col min="3" max="3" width="30.925" customWidth="1"/>
     <col min="4" max="5" width="28.875" customWidth="1"/>
-    <col min="6" max="6" width="18.9134615384615" customWidth="1"/>
-    <col min="7" max="7" width="22.1153846153846" customWidth="1"/>
+    <col min="6" max="6" width="30.925" customWidth="1"/>
+    <col min="7" max="7" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,42 +1084,60 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:5">
+    <row r="3" ht="93" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1151,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1176,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1144,7 +1193,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/BattleCommonParam.xlsx
+++ b/data_config/BattleCommonParam.xlsx
@@ -4,32 +4,51 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15810" windowHeight="10395"/>
+    <workbookView windowWidth="25600" windowHeight="12500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>zhangxiangyu</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>zhangxiangyu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+如果达到索引最大值那么就按照最大索引处理</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -52,6 +71,9 @@
     <t>maxPlayerWarhouseCellCount</t>
   </si>
   <si>
+    <t>buyPopulationCostCoin</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -79,20 +101,26 @@
     <t>实体的仓库道具栏最大格子数量</t>
   </si>
   <si>
+    <t>购买人口消耗的金币（索引代表购买之前的已购买次数）</t>
+  </si>
+  <si>
     <t>2,4</t>
+  </si>
+  <si>
+    <t>500,1000,2000,3500,5500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +271,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="33">
@@ -695,14 +734,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1053,117 +1098,132 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="30.925" customWidth="1"/>
-    <col min="4" max="5" width="28.875" customWidth="1"/>
-    <col min="6" max="6" width="30.925" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="17.6153846153846" customWidth="1"/>
+    <col min="4" max="4" width="14.4230769230769" customWidth="1"/>
+    <col min="5" max="5" width="16.0288461538462" customWidth="1"/>
+    <col min="6" max="6" width="13.2884615384615" customWidth="1"/>
+    <col min="7" max="7" width="13.7788461538462" customWidth="1"/>
+    <col min="8" max="8" width="25.6346153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:7">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" ht="93" customHeight="1" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1176,7 +1236,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1193,7 +1253,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/BattleCommonParam.xlsx
+++ b/data_config/BattleCommonParam.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12500"/>
+    <workbookView windowWidth="17055" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -21,14 +34,14 @@
     <author>zhangxiangyu</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>zhangxiangyu:</t>
         </r>
@@ -36,7 +49,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 如果达到索引最大值那么就按照最大索引处理</t>
@@ -48,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -56,6 +69,15 @@
     <t>id</t>
   </si>
   <si>
+    <t>initCoin</t>
+  </si>
+  <si>
+    <t>initPopulation</t>
+  </si>
+  <si>
+    <t>initReviveCoin</t>
+  </si>
+  <si>
     <t>initEntityItemBarCellUnlockCount</t>
   </si>
   <si>
@@ -86,6 +108,15 @@
     <t>ID</t>
   </si>
   <si>
+    <t>初始金币</t>
+  </si>
+  <si>
+    <t>初始人口</t>
+  </si>
+  <si>
+    <t>初始复活币</t>
+  </si>
+  <si>
     <t>实体初始解锁实体装备栏数目</t>
   </si>
   <si>
@@ -102,6 +133,15 @@
   </si>
   <si>
     <t>购买人口消耗的金币（索引代表购买之前的已购买次数）</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>2,4</t>
@@ -113,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -273,15 +313,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1098,24 +1138,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD50"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="17.6153846153846" customWidth="1"/>
-    <col min="4" max="4" width="14.4230769230769" customWidth="1"/>
-    <col min="5" max="5" width="16.0288461538462" customWidth="1"/>
-    <col min="6" max="6" width="13.2884615384615" customWidth="1"/>
-    <col min="7" max="7" width="13.7788461538462" customWidth="1"/>
-    <col min="8" max="8" width="25.6346153846154" customWidth="1"/>
+    <col min="2" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="17.6166666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.425" customWidth="1"/>
+    <col min="8" max="8" width="16.025" customWidth="1"/>
+    <col min="9" max="9" width="13.2916666666667" customWidth="1"/>
+    <col min="10" max="10" width="13.775" customWidth="1"/>
+    <col min="11" max="11" width="25.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,86 +1178,122 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:8">
+    <row r="3" ht="93" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1">
         <v>20</v>
       </c>
-      <c r="G4" s="1">
+      <c r="J4" s="1">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1313,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1253,7 +1330,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
